--- a/Challenge II/Services.xlsx
+++ b/Challenge II/Services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmarkmann\Documents\I-Tech\pb6\Challenge II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B03548-F6E2-4C4F-9C54-0359FBAB769E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05919F4B-49D6-40BB-956F-F46D0234AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>Service</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Arvids Azure</t>
-  </si>
-  <si>
-    <t>20.52.137.206</t>
   </si>
   <si>
     <t>Details</t>
@@ -145,19 +142,25 @@
     <t>OS</t>
   </si>
   <si>
-    <t>Pi</t>
-  </si>
-  <si>
-    <t>Pi Docker</t>
-  </si>
-  <si>
     <t>Linux</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Software finden</t>
+  </si>
+  <si>
+    <t>Toms Azure</t>
+  </si>
+  <si>
+    <t>Tom Azure</t>
+  </si>
+  <si>
+    <t>20.107.94.83</t>
+  </si>
+  <si>
+    <t>10.0.0.6/24</t>
+  </si>
+  <si>
+    <t>20.8.110.60</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -221,9 +224,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -541,10 +541,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -558,19 +558,19 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -581,16 +581,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -600,20 +600,20 @@
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -621,50 +621,44 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -675,26 +669,32 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="8"/>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -705,19 +705,19 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -750,17 +750,17 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
+      <c r="C12" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
+      <c r="E12" t="s">
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">

--- a/Challenge II/Services.xlsx
+++ b/Challenge II/Services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmarkmann\Documents\I-Tech\pb6\Challenge II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05919F4B-49D6-40BB-956F-F46D0234AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3521EF-5EF9-41D9-B670-FD2ABC2C8249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,13 +154,13 @@
     <t>Tom Azure</t>
   </si>
   <si>
-    <t>20.107.94.83</t>
-  </si>
-  <si>
     <t>10.0.0.6/24</t>
   </si>
   <si>
     <t>20.8.110.60</t>
+  </si>
+  <si>
+    <t>108.143.141.90</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +519,7 @@
     <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
   </cols>
@@ -558,13 +558,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -581,13 +581,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -601,13 +601,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -630,7 +630,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -688,7 +688,7 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
@@ -705,13 +705,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
@@ -728,13 +728,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -751,13 +751,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
